--- a/data_config/BattleProcess.xlsx
+++ b/data_config/BattleProcess.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="20560" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -127,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -287,23 +274,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -624,7 +617,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,16 +641,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -666,100 +659,106 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1112,10 +1111,10 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="31.875" customWidth="1"/>
@@ -1123,156 +1122,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>100</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="3:4">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1291,7 +1290,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1308,7 +1307,7 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
